--- a/permissions.xlsx
+++ b/permissions.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9180dbd63a053c90/Desktop/GitHub/FamilyTraditions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C4AF791-BF16-4E7A-80D8-D542B30B8927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{9C4AF791-BF16-4E7A-80D8-D542B30B8927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19B1EE59-16F7-4E22-840F-E846AA61AAD2}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" xr2:uid="{58CD3B1D-446E-4A13-8330-A8C8E995962C}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{58CD3B1D-446E-4A13-8330-A8C8E995962C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Accounts" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>Member</t>
   </si>
@@ -84,16 +85,114 @@
   </si>
   <si>
     <t>Pass Author Role in Book</t>
+  </si>
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>test1</t>
+  </si>
+  <si>
+    <t>test1@test.com</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
+  </si>
+  <si>
+    <t>test5</t>
+  </si>
+  <si>
+    <t>test2@test.com</t>
+  </si>
+  <si>
+    <t>test3@test.com</t>
+  </si>
+  <si>
+    <t>test4@test.com</t>
+  </si>
+  <si>
+    <t>test5@test.com</t>
+  </si>
+  <si>
+    <t>Password!1</t>
+  </si>
+  <si>
+    <t>Password!2</t>
+  </si>
+  <si>
+    <t>Password!3</t>
+  </si>
+  <si>
+    <t>Password!4</t>
+  </si>
+  <si>
+    <t>Password!5</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>forth</t>
+  </si>
+  <si>
+    <t>fifth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,13 +215,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B42B63F-F361-4563-95F0-F398D6279058}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:L4"/>
     </sheetView>
   </sheetViews>
@@ -598,4 +700,135 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B526FA45-0605-466A-8774-160CD5FFF0C2}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{19827263-0540-44F6-A66E-584D536FF7C1}"/>
+    <hyperlink ref="B3:B6" r:id="rId2" display="test1@test.com" xr:uid="{32098DCD-D4BB-4E37-BA5B-C6E0D2591D96}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{6486CC61-31A2-43B2-B4CD-D299B1AF56BF}"/>
+    <hyperlink ref="B4" r:id="rId4" xr:uid="{3B4B72A8-96D5-40D5-B8CC-B054F0DB93E6}"/>
+    <hyperlink ref="B5" r:id="rId5" xr:uid="{5A7F141B-ABB6-490F-9EA7-90CC29E21177}"/>
+    <hyperlink ref="B6" r:id="rId6" xr:uid="{6E74B299-AC37-4CA6-B1DC-3AD269714676}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>